--- a/src/main/resources/Bin/鞋贸港下单表格20181205最新修改.xlsx
+++ b/src/main/resources/Bin/鞋贸港下单表格20181205最新修改.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Java\2018.6\shoestp\src\main\resources\Bin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>尺码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +60,6 @@
   </si>
   <si>
     <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,11 +78,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,15 +156,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -202,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,41 +204,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -254,11 +243,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +364,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,14 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -559,25 +558,25 @@
     <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" ht="12.75" customHeight="1">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -585,144 +584,70 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="50.1" customHeight="1">
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" ht="50.1" customHeight="1">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -737,12 +662,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
